--- a/examples/sources/data/unsolved/to_schedule/2019-03-27.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-27.xlsx
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>43551</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>43551</v>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" s="2">
         <v>43551</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" s="2">
         <v>43551</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131" s="2">
         <v>43551</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N162">
         <v>1</v>
